--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H2">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N2">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O2">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P2">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q2">
-        <v>1.031303584656</v>
+        <v>9.740131759349445</v>
       </c>
       <c r="R2">
-        <v>9.281732261903999</v>
+        <v>87.661185834145</v>
       </c>
       <c r="S2">
-        <v>0.01427376843369341</v>
+        <v>0.08350380294041916</v>
       </c>
       <c r="T2">
-        <v>0.01427376843369342</v>
+        <v>0.08350380294041919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H3">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N3">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q3">
-        <v>13.728707899803</v>
+        <v>14.45465062642456</v>
       </c>
       <c r="R3">
-        <v>123.558371098227</v>
+        <v>130.091855637821</v>
       </c>
       <c r="S3">
-        <v>0.1900123303856931</v>
+        <v>0.1239221734678239</v>
       </c>
       <c r="T3">
-        <v>0.1900123303856931</v>
+        <v>0.1239221734678239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +670,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I4">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J4">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N4">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O4">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P4">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q4">
-        <v>2.188092469287111</v>
+        <v>19.04796847189889</v>
       </c>
       <c r="R4">
-        <v>19.69283222358399</v>
+        <v>171.43171624709</v>
       </c>
       <c r="S4">
-        <v>0.03028431752084954</v>
+        <v>0.1633014670634187</v>
       </c>
       <c r="T4">
-        <v>0.03028431752084955</v>
+        <v>0.1633014670634187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I5">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J5">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N5">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q5">
-        <v>29.12787545349356</v>
+        <v>28.26776230620911</v>
       </c>
       <c r="R5">
-        <v>262.150879081442</v>
+        <v>254.409860755882</v>
       </c>
       <c r="S5">
-        <v>0.4031446757041103</v>
+        <v>0.2423443246461743</v>
       </c>
       <c r="T5">
-        <v>0.4031446757041103</v>
+        <v>0.2423443246461743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H6">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I6">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J6">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N6">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O6">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P6">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q6">
-        <v>0.6175167488337777</v>
+        <v>5.638327896742778</v>
       </c>
       <c r="R6">
-        <v>5.557650739503999</v>
+        <v>50.744951070685</v>
       </c>
       <c r="S6">
-        <v>0.008546747250685298</v>
+        <v>0.04833834215344576</v>
       </c>
       <c r="T6">
-        <v>0.008546747250685299</v>
+        <v>0.04833834215344576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H7">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I7">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J7">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N7">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q7">
-        <v>8.22037971564189</v>
+        <v>8.367449422479224</v>
       </c>
       <c r="R7">
-        <v>73.983417440777</v>
+        <v>75.307044802313</v>
       </c>
       <c r="S7">
-        <v>0.1137742544909714</v>
+        <v>0.07173556425640153</v>
       </c>
       <c r="T7">
-        <v>0.1137742544909714</v>
+        <v>0.07173556425640151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H8">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I8">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J8">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N8">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O8">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P8">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q8">
-        <v>0.6024175815733332</v>
+        <v>6.084035152098334</v>
       </c>
       <c r="R8">
-        <v>5.421758234159999</v>
+        <v>54.756316368885</v>
       </c>
       <c r="S8">
-        <v>0.008337767062674918</v>
+        <v>0.05215946611150721</v>
       </c>
       <c r="T8">
-        <v>0.00833776706267492</v>
+        <v>0.05215946611150721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H9">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I9">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J9">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N9">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O9">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P9">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q9">
-        <v>8.019379680411667</v>
+        <v>9.028892492963667</v>
       </c>
       <c r="R9">
-        <v>72.174417123705</v>
+        <v>81.260032436673</v>
       </c>
       <c r="S9">
-        <v>0.1109923113262947</v>
+        <v>0.07740622797827791</v>
       </c>
       <c r="T9">
-        <v>0.1109923113262947</v>
+        <v>0.0774062279782779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H10">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I10">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J10">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N10">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O10">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P10">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q10">
-        <v>0.6089993386026665</v>
+        <v>6.446682242415</v>
       </c>
       <c r="R10">
-        <v>5.480994047423998</v>
+        <v>58.020140181735</v>
       </c>
       <c r="S10">
-        <v>0.008428861942127774</v>
+        <v>0.05526850117539652</v>
       </c>
       <c r="T10">
-        <v>0.008428861942127776</v>
+        <v>0.05526850117539653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H11">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I11">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J11">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N11">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O11">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P11">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q11">
-        <v>8.106995995401332</v>
+        <v>9.567071762067</v>
       </c>
       <c r="R11">
-        <v>72.96296395861199</v>
+        <v>86.103645858603</v>
       </c>
       <c r="S11">
-        <v>0.1122049658828995</v>
+        <v>0.08202013020713494</v>
       </c>
       <c r="T11">
-        <v>0.1122049658828995</v>
+        <v>0.08202013020713493</v>
       </c>
     </row>
   </sheetData>
